--- a/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
+++ b/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="120" windowWidth="18810" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22620" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I22"/>
 </workbook>
 </file>
 
@@ -687,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
+++ b/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22620" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22260" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:I22"/>
+  <calcPr calcId="145621"/>
+  <oleSize ref="A1:H18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -216,15 +216,9 @@
     <t>Patienten suchen</t>
   </si>
   <si>
-    <t>Formular zum Festlegen der Suchkriterien für die Suche nach bestimmten Patienten.</t>
-  </si>
-  <si>
     <t>Patienten filtern</t>
   </si>
   <si>
-    <t>Formular zum Festlegen der Filterkriterien.</t>
-  </si>
-  <si>
     <t>Scrum master sprint 1:</t>
   </si>
   <si>
@@ -240,63 +234,18 @@
     <t>Scrum master sprint 4:</t>
   </si>
   <si>
-    <t>Detailansicht Homescreen</t>
-  </si>
-  <si>
-    <t>Navigationsleiste</t>
-  </si>
-  <si>
-    <t>Patiententabelle und Buttons "Neuer Patient", "Neuer Fall", "Fall abschliessen"</t>
-  </si>
-  <si>
-    <t>Navigationsbuttons für die einzelnen Bereiche des Patientendossiers sowie Vor- und Zurück-Button</t>
-  </si>
-  <si>
-    <t>Titelleiste Homescreen</t>
-  </si>
-  <si>
-    <t>Titel, Datum, Logout-Button, Einbettung der Komponenten zum Suchen und Filtern</t>
-  </si>
-  <si>
-    <t>User-Klassenhierarchie</t>
-  </si>
-  <si>
-    <t>User-Klassen zum Einschränken der erlaubten User-Operationen.</t>
-  </si>
-  <si>
-    <t>Model Patientendaten</t>
-  </si>
-  <si>
     <t>Detailansicht Patientendaten</t>
   </si>
   <si>
     <t>Detailansicht Fallinformationen</t>
   </si>
   <si>
-    <t>Titelleiste Patientendossier</t>
-  </si>
-  <si>
     <t>Eingabeformular neuer Patient</t>
   </si>
   <si>
     <t>Bestätigungsdialog neuer Fall</t>
   </si>
   <si>
-    <t>Bearbeitungsdialog aktueller Fall</t>
-  </si>
-  <si>
-    <t>Model Falldaten</t>
-  </si>
-  <si>
-    <t>Implementation des Models zur Verwaltung und persistenten Speicherung der Patientendaten.</t>
-  </si>
-  <si>
-    <t>Implementation des Models zur Verwaltung und persistenten Speicherung der Falldaten.</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Fabian Affolter</t>
   </si>
   <si>
@@ -304,6 +253,48 @@
   </si>
   <si>
     <t>Arthur Van Ommen</t>
+  </si>
+  <si>
+    <t>Dialog zum Festlegen der Suchkriterien für die Suche nach bestimmten Patienten.</t>
+  </si>
+  <si>
+    <t>Dialog zum Festlegen der Filterkriterien.</t>
+  </si>
+  <si>
+    <t>GUI-Grundgerüst für Homescreen</t>
+  </si>
+  <si>
+    <t>Navigationsleiste mit Navigationsbuttons für die einzelnen Bereiche des Patientendossiers sowie Vor- und Zurück-Button. Patiententabelle und Buttons "Neuer Patient", "Neuer Fall", "Fall abschliessen". Titelleiste Homescreen mit Titel, Datum, Logout-Button, Einbettung der Komponenten zum Suchen und Filtern.</t>
+  </si>
+  <si>
+    <t>Patientendaten anzeigen in der Detailansicht. Titelleiste Patientendossier anzeigen.</t>
+  </si>
+  <si>
+    <t>Bearbeitungsformular aktueller Fall</t>
+  </si>
+  <si>
+    <t>Grundgerüst User-Klassen</t>
+  </si>
+  <si>
+    <t>User-Klassen zum Einschränken der erlaubten User-Operationen. Speicherung des GUI-Zustandes mit Anwendung des State-Patterns.</t>
+  </si>
+  <si>
+    <t>Grundgerüst Model-Klassen</t>
+  </si>
+  <si>
+    <t>Container- und Item-Klassen für die persistente Speicherung (JPA mit EclipseLink). DataAccess-Klassen für Zugriff auf Model.</t>
+  </si>
+  <si>
+    <t>Model, Database</t>
+  </si>
+  <si>
+    <t>UI, Controller, Model</t>
+  </si>
+  <si>
+    <t>User, Model</t>
+  </si>
+  <si>
+    <t>Total Sprint 1</t>
   </si>
 </sst>
 </file>
@@ -368,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -382,6 +373,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -688,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,9 +691,10 @@
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -743,7 +738,16 @@
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <v>8</v>
+        <f>SUM('Sprint Backlog'!H3:H5)</f>
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <f>SUM('Sprint Backlog'!I3:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUM('Sprint Backlog'!J3:J5)</f>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -763,7 +767,16 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <f>'Sprint Backlog'!H6</f>
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>'Sprint Backlog'!I6</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>'Sprint Backlog'!J6</f>
+        <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
@@ -783,7 +796,16 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <f>'Sprint Backlog'!H7</f>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>'Sprint Backlog'!I7</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>'Sprint Backlog'!J7</f>
+        <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>8</v>
@@ -803,7 +825,16 @@
         <v>5</v>
       </c>
       <c r="E5">
+        <f>'Sprint Backlog'!H8</f>
         <v>4</v>
+      </c>
+      <c r="F5">
+        <f>'Sprint Backlog'!I8</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>'Sprint Backlog'!J8</f>
+        <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -823,7 +854,16 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <f>'Sprint Backlog'!H9</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>'Sprint Backlog'!I9</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>'Sprint Backlog'!J9</f>
+        <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>8</v>
@@ -843,7 +883,16 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <f>'Sprint Backlog'!H10</f>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f>'Sprint Backlog'!I10</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>'Sprint Backlog'!J10</f>
+        <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>8</v>
@@ -859,48 +908,32 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
+      <c r="D9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="8">
+        <f>SUM(E2:E7)</f>
+        <v>23</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" ref="F9:G9" si="0">SUM(F2:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -911,13 +944,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -928,13 +961,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -945,13 +978,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -962,13 +995,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -979,13 +1012,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -996,13 +1029,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -1013,13 +1046,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -1029,17 +1062,31 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="2"/>
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -1049,31 +1096,17 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -1084,13 +1117,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -1100,17 +1133,31 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="2"/>
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -1121,16 +1168,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>8</v>
@@ -1138,13 +1185,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1155,13 +1202,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -1172,13 +1219,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1187,30 +1234,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
@@ -1218,15 +1294,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,17 +1313,17 @@
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="87.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1333,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1280,145 +1359,119 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
         <v>90</v>
       </c>
-      <c r="E6" t="s">
-        <v>92</v>
-      </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
         <v>8</v>
@@ -1426,20 +1479,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -1453,26 +1508,28 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2.2000000000000002</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" t="s">
         <v>8</v>
@@ -1480,46 +1537,51 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
       </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
       <c r="K9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -1531,140 +1593,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>8</v>
+      <c r="G12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(H3:H10)</f>
+        <v>23</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" ref="I12:J12" si="0">SUM(I3:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6.1</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="K13" t="s">
-        <v>8</v>
-      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="6"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
+++ b/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22260" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22260" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Total Sprint 1</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,11 +746,11 @@
       </c>
       <c r="F2" s="2">
         <f>SUM('Sprint Backlog'!I3:I5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2">
         <f>SUM('Sprint Backlog'!J3:J5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -917,11 +920,11 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9:G9" si="0">SUM(F2:F7)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25"/>
@@ -1305,7 +1308,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,8 +1389,14 @@
       <c r="H3">
         <v>4</v>
       </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
       <c r="K3" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1416,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1604,11 +1613,11 @@
       </c>
       <c r="I12" s="8">
         <f t="shared" ref="I12:J12" si="0">SUM(I3:I10)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
+++ b/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22260" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22440" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -746,11 +746,11 @@
       </c>
       <c r="F2" s="2">
         <f>SUM('Sprint Backlog'!I3:I5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2">
         <f>SUM('Sprint Backlog'!J3:J5)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -920,11 +920,11 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9:G9" si="0">SUM(F2:F7)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25"/>
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,8 +1424,14 @@
       <c r="H4">
         <v>4</v>
       </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
       <c r="K4" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1454,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1613,11 +1619,11 @@
       </c>
       <c r="I12" s="8">
         <f t="shared" ref="I12:J12" si="0">SUM(I3:I10)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
+++ b/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="A1:H18"/>
+  <oleSize ref="D1:L19"/>
 </workbook>
 </file>
 
@@ -282,9 +282,6 @@
     <t>Grundgerüst Model-Klassen</t>
   </si>
   <si>
-    <t>Container- und Item-Klassen für die persistente Speicherung (JPA mit EclipseLink). DataAccess-Klassen für Zugriff auf Model.</t>
-  </si>
-  <si>
     <t>Model, Database</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Container- und Item-Klassen für die persistente Speicherung (JPA mit EclipseLink). DataAccess-Klasse für Zugriff auf Model.</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
       </c>
       <c r="G2" s="2">
         <f>SUM('Sprint Backlog'!J3:J5)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="8">
         <f>SUM(E2:E7)</f>
@@ -924,7 +924,7 @@
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25"/>
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,11 +1319,11 @@
     <col min="4" max="4" width="87.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
         <v>76</v>
@@ -1428,10 +1428,10 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1445,10 +1445,10 @@
         <v>87</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
         <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
       </c>
       <c r="F5" t="s">
         <v>77</v>
@@ -1477,7 +1477,7 @@
         <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
         <v>78</v>
@@ -1506,7 +1506,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
         <v>68</v>
@@ -1535,7 +1535,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -1564,7 +1564,7 @@
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -1593,7 +1593,7 @@
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -1610,8 +1610,8 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G12" s="8" t="s">
-        <v>92</v>
+      <c r="F12" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="H12" s="8">
         <f>SUM(H3:H10)</f>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="J12" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
+++ b/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22440" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22440" windowHeight="6570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -746,11 +746,11 @@
       </c>
       <c r="F2" s="2">
         <f>SUM('Sprint Backlog'!I3:I5)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2">
         <f>SUM('Sprint Backlog'!J3:J5)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -920,11 +920,11 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9:G9" si="0">SUM(F2:F7)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1459,8 +1459,14 @@
       <c r="H5">
         <v>4</v>
       </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
       <c r="K5" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1489,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1619,11 +1625,11 @@
       </c>
       <c r="I12" s="8">
         <f t="shared" ref="I12:J12" si="0">SUM(I3:I10)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
+++ b/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22440" windowHeight="6570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22440" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="D1:L19"/>
+  <oleSize ref="C1:J19"/>
 </workbook>
 </file>
 
@@ -686,7 +686,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,10 +933,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -950,10 +950,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -984,10 +984,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -1001,10 +1001,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -1018,10 +1018,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1035,10 +1035,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -1052,10 +1052,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -1069,10 +1069,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -1086,10 +1086,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -1099,17 +1099,31 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="2"/>
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -1120,13 +1134,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -1137,13 +1151,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -1154,13 +1168,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -1171,16 +1185,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>8</v>
@@ -1188,13 +1202,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1205,13 +1219,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -1222,13 +1236,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1237,23 +1251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1307,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
+++ b/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="C1:J19"/>
+  <oleSize ref="D1:M19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -686,7 +686,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,18 +742,18 @@
       </c>
       <c r="E2" s="2">
         <f>SUM('Sprint Backlog'!H3:H5)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2">
         <f>SUM('Sprint Backlog'!I3:I5)</f>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2">
         <f>SUM('Sprint Backlog'!J3:J5)</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
       </c>
       <c r="E3">
         <f>'Sprint Backlog'!H6</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <f>'Sprint Backlog'!I6</f>
@@ -779,10 +779,10 @@
       </c>
       <c r="G3">
         <f>'Sprint Backlog'!J6</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -800,7 +800,7 @@
       </c>
       <c r="E4">
         <f>'Sprint Backlog'!H7</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <f>'Sprint Backlog'!I7</f>
@@ -808,10 +808,10 @@
       </c>
       <c r="G4">
         <f>'Sprint Backlog'!J7</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -837,10 +837,10 @@
       </c>
       <c r="G5">
         <f>'Sprint Backlog'!J8</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
       </c>
       <c r="E6">
         <f>'Sprint Backlog'!H9</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <f>'Sprint Backlog'!I9</f>
@@ -887,7 +887,7 @@
       </c>
       <c r="E7">
         <f>'Sprint Backlog'!H10</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <f>'Sprint Backlog'!I10</f>
@@ -902,8 +902,21 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -911,32 +924,48 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="8">
-        <f>SUM(E2:E7)</f>
-        <v>23</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" ref="F9:G9" si="0">SUM(F2:F7)</f>
-        <v>13</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -947,13 +976,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -964,13 +993,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -981,13 +1010,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -998,13 +1027,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -1015,13 +1044,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1032,13 +1061,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -1049,13 +1078,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -1066,13 +1095,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -1083,13 +1112,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -1100,13 +1129,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -1117,13 +1146,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -1134,16 +1163,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>8</v>
@@ -1151,16 +1180,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>8</v>
@@ -1168,16 +1197,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>8</v>
@@ -1185,13 +1214,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1200,57 +1229,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25"/>
@@ -1305,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,13 +1366,13 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
         <v>92</v>
@@ -1423,10 +1404,10 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K4" t="s">
         <v>92</v>
@@ -1458,10 +1439,10 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
         <v>92</v>
@@ -1490,7 +1471,10 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
       </c>
       <c r="K6" t="s">
         <v>9</v>
@@ -1519,10 +1503,13 @@
         <v>5</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1550,8 +1537,11 @@
       <c r="H8">
         <v>4</v>
       </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1577,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
         <v>8</v>
@@ -1606,7 +1596,7 @@
         <v>5</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="s">
         <v>8</v>
@@ -1619,15 +1609,15 @@
       </c>
       <c r="H12" s="8">
         <f>SUM(H3:H10)</f>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" ref="I12:J12" si="0">SUM(I3:I10)</f>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
+++ b/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22440" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="27450" windowHeight="11025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="D1:M19"/>
+  <oleSize ref="A1:M30"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Patientendaten anzeigen</t>
   </si>
   <si>
-    <t>Falldaten bearbeiten</t>
-  </si>
-  <si>
     <t>Patientenverlauf anzeigen</t>
   </si>
   <si>
@@ -120,15 +117,9 @@
     <t>Patientenverlauf: Eintrag löschen</t>
   </si>
   <si>
-    <t>Bestätigungsdialog zum Eröffnen eines neuen Falls.</t>
-  </si>
-  <si>
     <t>Bestätigungsdialog zum Löschen eines Eintrages im  Patientenverlauf.</t>
   </si>
   <si>
-    <t>Neuen Fall eröffnen</t>
-  </si>
-  <si>
     <t>Diagnosen anzeigen in Detailansicht.</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
     <t>Scrum master sprint 3:</t>
   </si>
   <si>
-    <t>Scrum master sprint 4:</t>
-  </si>
-  <si>
     <t>Detailansicht Patientendaten</t>
   </si>
   <si>
@@ -243,9 +231,6 @@
     <t>Eingabeformular neuer Patient</t>
   </si>
   <si>
-    <t>Bestätigungsdialog neuer Fall</t>
-  </si>
-  <si>
     <t>Fabian Affolter</t>
   </si>
   <si>
@@ -298,6 +283,12 @@
   </si>
   <si>
     <t>Container- und Item-Klassen für die persistente Speicherung (JPA mit EclipseLink). DataAccess-Klasse für Zugriff auf Model.</t>
+  </si>
+  <si>
+    <t>Neuen Fall eröffnen und Falldaten bearbeiten</t>
+  </si>
+  <si>
+    <t>Eingabeformular zum Öffnen Bearbeiten eines Falls.</t>
   </si>
 </sst>
 </file>
@@ -686,13 +677,13 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -732,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -753,7 +744,7 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -764,7 +755,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -790,10 +781,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -819,10 +810,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -848,31 +839,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6">
-        <f>'Sprint Backlog'!H9</f>
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <f>'Sprint Backlog'!I9</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f>'Sprint Backlog'!J9</f>
-        <v>0</v>
+      <c r="E6" t="e">
+        <f>'Sprint Backlog'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" t="e">
+        <f>'Sprint Backlog'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" t="e">
+        <f>'Sprint Backlog'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -880,36 +871,29 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <f>'Sprint Backlog'!H10</f>
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <f>'Sprint Backlog'!I10</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f>'Sprint Backlog'!J10</f>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -917,21 +901,16 @@
       <c r="H8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -940,15 +919,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -957,15 +936,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -974,32 +953,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -1008,15 +981,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -1025,15 +998,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -1042,15 +1015,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1059,15 +1032,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -1076,15 +1049,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -1093,15 +1066,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -1110,15 +1083,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -1127,15 +1100,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -1144,15 +1117,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -1161,15 +1134,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1178,15 +1151,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1195,15 +1168,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1212,15 +1185,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1229,50 +1202,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
       <c r="C34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1286,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,16 +1317,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -1375,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1386,16 +1352,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -1410,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1421,16 +1387,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1445,7 +1411,7 @@
         <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1456,16 +1422,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -1488,16 +1454,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -1520,16 +1486,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -1544,113 +1510,94 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6.1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="K10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="8">
-        <f>SUM(H3:H10)</f>
-        <v>32</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" ref="I12:J12" si="0">SUM(I3:I10)</f>
+    <row r="10" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="6"/>
+      <c r="F11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="8">
+        <f>SUM(H3:H9)</f>
+        <v>30</v>
+      </c>
+      <c r="I11" s="8">
+        <f>SUM(I3:I9)</f>
         <v>26</v>
       </c>
-      <c r="J12" s="8">
-        <f t="shared" si="0"/>
+      <c r="J11" s="8">
+        <f>SUM(J3:J9)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="7"/>
+    <row r="20" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
+++ b/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
@@ -11,12 +11,11 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="A1:M30"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -45,9 +44,6 @@
     <t>waiting</t>
   </si>
   <si>
-    <t>work in progress</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -138,9 +134,6 @@
     <t>Eingabeformular zum Erfassen eines neuen Eintrages im Patientenverlauf.</t>
   </si>
   <si>
-    <t>Bearbeitungsformular zum Bearbeiten des aktuellen Falls.</t>
-  </si>
-  <si>
     <t>Bearbeitungsformular zum Bearbeiten eines Eintrages im Patientenverlauf.</t>
   </si>
   <si>
@@ -255,15 +248,6 @@
     <t>Patientendaten anzeigen in der Detailansicht. Titelleiste Patientendossier anzeigen.</t>
   </si>
   <si>
-    <t>Bearbeitungsformular aktueller Fall</t>
-  </si>
-  <si>
-    <t>Grundgerüst User-Klassen</t>
-  </si>
-  <si>
-    <t>User-Klassen zum Einschränken der erlaubten User-Operationen. Speicherung des GUI-Zustandes mit Anwendung des State-Patterns.</t>
-  </si>
-  <si>
     <t>Grundgerüst Model-Klassen</t>
   </si>
   <si>
@@ -289,6 +273,24 @@
   </si>
   <si>
     <t>Eingabeformular zum Öffnen Bearbeiten eines Falls.</t>
+  </si>
+  <si>
+    <t>Permission-Klassen für State-Pattern</t>
+  </si>
+  <si>
+    <t>Permission-Klassen zum Einschränken der erlaubten User-Operationen. Speicherung des GUI-Zustandes mit Anwendung des State-Patterns.</t>
+  </si>
+  <si>
+    <t>Bearbeitungsformular zum Bearbeiten und  Erfassen eines Falls.</t>
+  </si>
+  <si>
+    <t>Bearbeitungsformular Fall</t>
+  </si>
+  <si>
+    <t>Refactoring Projekt</t>
+  </si>
+  <si>
+    <t>Total Sprint 2</t>
   </si>
 </sst>
 </file>
@@ -674,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B7" sqref="B7:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,12 +694,12 @@
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -706,56 +708,56 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2">
         <f>SUM('Sprint Backlog'!H3:H5)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2">
         <f>SUM('Sprint Backlog'!I3:I5)</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2">
         <f>SUM('Sprint Backlog'!J3:J5)</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -766,25 +768,25 @@
       </c>
       <c r="F3">
         <f>'Sprint Backlog'!I6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <f>'Sprint Backlog'!J6</f>
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -795,25 +797,25 @@
       </c>
       <c r="F4">
         <f>'Sprint Backlog'!I7</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <f>'Sprint Backlog'!J7</f>
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -824,54 +826,54 @@
       </c>
       <c r="F5">
         <f>'Sprint Backlog'!I8</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <f>'Sprint Backlog'!J8</f>
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="e">
-        <f>'Sprint Backlog'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" t="e">
-        <f>'Sprint Backlog'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" t="e">
-        <f>'Sprint Backlog'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>'Sprint Backlog'!H9</f>
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f>'Sprint Backlog'!I9</f>
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <f>'Sprint Backlog'!J9</f>
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -879,21 +881,16 @@
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -902,7 +899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -910,7 +907,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -919,7 +916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -927,7 +924,7 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -936,40 +933,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -981,15 +978,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -998,15 +995,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -1015,15 +1012,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1032,15 +1029,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -1049,15 +1046,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -1066,15 +1063,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -1083,15 +1080,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -1100,15 +1097,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -1117,7 +1114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1125,24 +1122,24 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1151,15 +1148,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1168,15 +1165,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1185,60 +1182,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>64</v>
       </c>
-      <c r="C32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1250,17 +1222,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="87.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1276,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1285,22 +1257,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -1317,16 +1289,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -1341,7 +1313,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1352,31 +1324,31 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1387,16 +1359,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1411,7 +1383,7 @@
         <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1422,16 +1394,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -1439,11 +1411,14 @@
       <c r="H6">
         <v>4</v>
       </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1454,16 +1429,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -1471,11 +1446,14 @@
       <c r="H7">
         <v>4</v>
       </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
       <c r="J7">
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1486,16 +1464,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -1503,31 +1481,34 @@
       <c r="H8">
         <v>4</v>
       </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
         <v>79</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>84</v>
-      </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -1535,69 +1516,100 @@
       <c r="H9">
         <v>4</v>
       </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
       <c r="K9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="6"/>
-      <c r="F11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="8">
-        <f>SUM(H3:H9)</f>
-        <v>30</v>
-      </c>
-      <c r="I11" s="8">
-        <f>SUM(I3:I9)</f>
-        <v>26</v>
-      </c>
-      <c r="J11" s="8">
-        <f>SUM(J3:J9)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(H3:H10)</f>
+        <v>28</v>
+      </c>
+      <c r="I12" s="8">
+        <f>SUM(I3:I10)</f>
+        <v>40</v>
+      </c>
+      <c r="J12" s="8">
+        <f>SUM(J3:J10)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
+++ b/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -287,10 +287,28 @@
     <t>Bearbeitungsformular Fall</t>
   </si>
   <si>
-    <t>Refactoring Projekt</t>
-  </si>
-  <si>
     <t>Total Sprint 2</t>
+  </si>
+  <si>
+    <t>Refactoring Projekt:  UI Klassen</t>
+  </si>
+  <si>
+    <t>Refactoring Projekt:  Controller Klassen, Permission</t>
+  </si>
+  <si>
+    <t>Refactoring Projekt:  Model Klassen</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>work in progress</t>
   </si>
 </sst>
 </file>
@@ -679,7 +697,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,14 +1243,14 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="87.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1548,68 +1566,186 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.1</v>
+      </c>
       <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6.1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7.1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8.1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9.1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="7"/>
+      <c r="F23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="7"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
+++ b/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -309,6 +309,66 @@
   </si>
   <si>
     <t>work in progress</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>Total Sprint 3</t>
+  </si>
+  <si>
+    <t>A.1</t>
+  </si>
+  <si>
+    <t>Unit Tests zu Model Klassen</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>A.2</t>
+  </si>
+  <si>
+    <t>Kommentare zu allen Klassen</t>
+  </si>
+  <si>
+    <t>Inspections</t>
+  </si>
+  <si>
+    <t>Präsentation vorbereiten</t>
+  </si>
+  <si>
+    <t>A.3</t>
+  </si>
+  <si>
+    <t>A.4</t>
+  </si>
+  <si>
+    <t>A.5</t>
+  </si>
+  <si>
+    <t>A.6</t>
+  </si>
+  <si>
+    <t>Update diary und Backlog</t>
+  </si>
+  <si>
+    <t>User Interface Anpassungen</t>
+  </si>
+  <si>
+    <t>PatientInfo, CaseInfo, TitleBar</t>
+  </si>
+  <si>
+    <t>UI, Model</t>
+  </si>
+  <si>
+    <t>Realease und Usability Tests</t>
+  </si>
+  <si>
+    <t>TODOs, Bugfix</t>
+  </si>
+  <si>
+    <t>Alle TODOs in Code anpassen und Bugs beheben</t>
   </si>
 </sst>
 </file>
@@ -694,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,8 +956,11 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
       <c r="H7" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -913,8 +976,11 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -930,8 +996,11 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
       <c r="H9" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -947,8 +1016,11 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
       <c r="H10" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -961,6 +1033,15 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -975,8 +1056,11 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
       <c r="H12" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -992,8 +1076,11 @@
       <c r="D13" t="s">
         <v>6</v>
       </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
       <c r="H13" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1009,8 +1096,11 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
       <c r="H14" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1026,6 +1116,9 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
       <c r="H15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1043,6 +1136,9 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
       <c r="H16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1156,11 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
       <c r="H17" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1077,8 +1176,11 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
       <c r="H18" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1094,8 +1196,11 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
       <c r="H19" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1111,8 +1216,11 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
       <c r="H20" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1128,8 +1236,11 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1146,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1163,7 +1274,7 @@
         <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1180,7 +1291,7 @@
         <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1197,35 +1308,35 @@
         <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>8</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1240,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,11 +1365,11 @@
     <col min="4" max="4" width="87.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1569,6 +1680,9 @@
       <c r="A14">
         <v>0.1</v>
       </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
       <c r="C14" t="s">
         <v>91</v>
       </c>
@@ -1576,22 +1690,31 @@
         <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
       </c>
       <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>97</v>
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.2</v>
       </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
       <c r="C15" t="s">
         <v>92</v>
       </c>
@@ -1605,16 +1728,25 @@
         <v>5</v>
       </c>
       <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>97</v>
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.3</v>
       </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
       <c r="C16" t="s">
         <v>93</v>
       </c>
@@ -1622,22 +1754,31 @@
         <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
       </c>
       <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>97</v>
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6.1</v>
       </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -1648,7 +1789,7 @@
         <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -1656,14 +1797,23 @@
       <c r="H17">
         <v>4</v>
       </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
       <c r="K17" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.1</v>
       </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -1682,14 +1832,23 @@
       <c r="H18">
         <v>4</v>
       </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
       <c r="K18" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8.1</v>
       </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
       <c r="C19" t="s">
         <v>35</v>
       </c>
@@ -1700,7 +1859,7 @@
         <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -1708,14 +1867,23 @@
       <c r="H19">
         <v>4</v>
       </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
       <c r="K19" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9.1</v>
       </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
       <c r="C20" t="s">
         <v>36</v>
       </c>
@@ -1726,7 +1894,7 @@
         <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
         <v>6</v>
@@ -1734,8 +1902,14 @@
       <c r="H20">
         <v>4</v>
       </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
       <c r="K20" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1746,6 +1920,652 @@
       <c r="F23" s="8" t="s">
         <v>90</v>
       </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
+        <f>SUM(H14:H20)</f>
+        <v>28</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" ref="I23:J23" si="0">SUM(I14:I20)</f>
+        <v>34</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6.1</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7.1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>8.1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10.1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11.1</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12.1</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>13.1</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>14.1</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>15.1</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.4</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.5</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
+++ b/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="27450" windowHeight="11025" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="21840" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <oleSize ref="A25:G47"/>
 </workbook>
 </file>
 
@@ -1353,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
+++ b/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
@@ -11,12 +11,11 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="A25:G47"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -42,9 +41,6 @@
     <t>low</t>
   </si>
   <si>
-    <t>waiting</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -261,9 +257,6 @@
     <t>User, Model</t>
   </si>
   <si>
-    <t>Total Sprint 1</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
@@ -288,9 +281,6 @@
     <t>Bearbeitungsformular Fall</t>
   </si>
   <si>
-    <t>Total Sprint 2</t>
-  </si>
-  <si>
     <t>Refactoring Projekt:  UI Klassen</t>
   </si>
   <si>
@@ -309,15 +299,9 @@
     <t>Model</t>
   </si>
   <si>
-    <t>work in progress</t>
-  </si>
-  <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>Total Sprint 3</t>
-  </si>
-  <si>
     <t>A.1</t>
   </si>
   <si>
@@ -370,13 +354,28 @@
   </si>
   <si>
     <t>Alle TODOs in Code anpassen und Bugs beheben</t>
+  </si>
+  <si>
+    <t>partial done</t>
+  </si>
+  <si>
+    <t>Diagnosen anzeigen in Detailansicht und Tabellenansicht</t>
+  </si>
+  <si>
+    <t>A.7</t>
+  </si>
+  <si>
+    <t>A.8</t>
+  </si>
+  <si>
+    <t>Filter für alle Fälle oder aktuelle Fälle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,14 +394,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -434,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -453,7 +444,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -758,7 +748,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="E7" sqref="E7:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -787,13 +777,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -804,10 +794,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -825,7 +815,7 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -833,28 +823,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E3">
-        <f>'Sprint Backlog'!H6</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <f>'Sprint Backlog'!I6</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <f>'Sprint Backlog'!J6</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -862,28 +849,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E4">
-        <f>'Sprint Backlog'!H7</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <f>'Sprint Backlog'!I7</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <f>'Sprint Backlog'!J7</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -891,28 +875,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E5">
-        <f>'Sprint Backlog'!H8</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <f>'Sprint Backlog'!I8</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <f>'Sprint Backlog'!J8</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -920,28 +901,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6">
-        <f>'Sprint Backlog'!H9</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <f>'Sprint Backlog'!I9</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <f>'Sprint Backlog'!J9</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -949,19 +927,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -969,19 +953,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -989,19 +979,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1009,10 +1005,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -1020,8 +1016,14 @@
       <c r="E10">
         <v>4</v>
       </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
       <c r="H10" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,19 +1031,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1049,296 +1057,276 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1352,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1387,22 +1375,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -1419,22 +1407,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -1443,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1454,31 +1442,31 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1489,16 +1477,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1507,13 +1495,13 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1524,31 +1512,31 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1559,31 +1547,31 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1594,31 +1582,31 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1629,66 +1617,109 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="F12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="8">
-        <f>SUM(H3:H10)</f>
-        <v>28</v>
-      </c>
-      <c r="I12" s="8">
-        <f>SUM(I3:I10)</f>
-        <v>40</v>
-      </c>
-      <c r="J12" s="8">
-        <f>SUM(J3:J10)</f>
-        <v>40</v>
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="7"/>
+      <c r="A13">
+        <v>0.2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
         <v>70</v>
@@ -1706,91 +1737,97 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.2</v>
+        <v>6.1</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.3</v>
+        <v>7.1</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16">
         <v>4</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -1804,358 +1841,375 @@
       <c r="J17">
         <v>4</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>97</v>
+      <c r="K17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6.2</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>13</v>
+      </c>
+      <c r="J21">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7.2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>8.1</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19">
-        <v>4</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>9.1</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="7"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="7"/>
-      <c r="F23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8">
-        <f>SUM(H14:H20)</f>
-        <v>28</v>
-      </c>
-      <c r="I23" s="8">
-        <f t="shared" ref="I23:J23" si="0">SUM(I14:I20)</f>
-        <v>34</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="0"/>
-        <v>34</v>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>6.1</v>
+        <v>10.1</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
       </c>
       <c r="H25">
-        <v>4</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>97</v>
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>7.1</v>
+        <v>11.1</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
       </c>
       <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>97</v>
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>8.1</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0.1</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28">
-        <v>4</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="K27" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>10.1</v>
+      <c r="A29" t="s">
+        <v>95</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>29</v>
+        <v>107</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
         <v>6</v>
       </c>
       <c r="H29">
-        <v>4</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>97</v>
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>11.1</v>
+      <c r="A30" t="s">
+        <v>98</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" t="s">
-        <v>38</v>
+        <v>111</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
         <v>6</v>
       </c>
       <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>97</v>
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>12</v>
+      </c>
+      <c r="J30">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>12.1</v>
+      <c r="A31" t="s">
+        <v>102</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="G31" t="s">
         <v>6</v>
       </c>
       <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>97</v>
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>13.1</v>
+      <c r="A32" t="s">
+        <v>103</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="G32" t="s">
         <v>6</v>
@@ -2163,409 +2217,295 @@
       <c r="H32">
         <v>4</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>97</v>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>14.1</v>
+      <c r="A33" t="s">
+        <v>104</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
         <v>6</v>
       </c>
       <c r="H33">
-        <v>4</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>15.1</v>
+      <c r="A34" t="s">
+        <v>105</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="G34" t="s">
         <v>6</v>
       </c>
       <c r="H34">
-        <v>4</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>16.100000000000001</v>
+      <c r="A35" t="s">
+        <v>115</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="G35" t="s">
         <v>6</v>
       </c>
       <c r="H35">
-        <v>4</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>97</v>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>17.100000000000001</v>
+      <c r="A36" t="s">
+        <v>116</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>42</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D46" t="s">
         <v>46</v>
       </c>
-      <c r="E36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36">
-        <v>4</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="E46" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>43</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D47" t="s">
         <v>47</v>
       </c>
-      <c r="E37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" t="s">
-        <v>63</v>
-      </c>
-      <c r="G38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38">
-        <v>4</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39">
-        <v>8</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>0.4</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40">
-        <v>8</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>0.5</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41">
-        <v>8</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" t="s">
-        <v>6</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" t="s">
-        <v>6</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" t="s">
-        <v>102</v>
-      </c>
-      <c r="G46" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>106</v>
-      </c>
       <c r="E47" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" t="s">
-        <v>102</v>
-      </c>
-      <c r="G48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F51" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
+++ b/ch.bfh.bti7081.s2013.white/doc/cs01/MHC_PMS_Backlog_Team_white.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="21840" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22095" windowHeight="7245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <oleSize ref="D1:K17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -227,9 +228,6 @@
     <t>Marc Schärrer</t>
   </si>
   <si>
-    <t>Arthur Van Ommen</t>
-  </si>
-  <si>
     <t>Dialog zum Festlegen der Suchkriterien für die Suche nach bestimmten Patienten.</t>
   </si>
   <si>
@@ -369,6 +367,12 @@
   </si>
   <si>
     <t>Filter für alle Fälle oder aktuelle Fälle</t>
+  </si>
+  <si>
+    <t>Fabian Affolter, Marc Schärrer</t>
+  </si>
+  <si>
+    <t>Patrick Kofmel, Fabian Affolter</t>
   </si>
 </sst>
 </file>
@@ -748,7 +752,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:G12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +819,7 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,7 +845,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -867,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -893,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -901,10 +905,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
         <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -919,7 +923,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -945,7 +949,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -971,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -997,7 +1001,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1023,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1049,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1060,7 +1064,7 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -1075,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,7 +1090,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -1101,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,7 +1122,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1135,7 +1139,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1152,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1178,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1195,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1212,7 +1216,7 @@
         <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1229,7 +1233,7 @@
         <v>6</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1246,7 +1250,7 @@
         <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1263,7 +1267,7 @@
         <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1280,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1342,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1357,7 @@
     <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="87.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -1407,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1431,7 +1435,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1442,16 +1446,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -1466,7 +1470,7 @@
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1477,16 +1481,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>77</v>
-      </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1501,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1515,13 +1519,13 @@
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -1536,7 +1540,7 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1553,10 +1557,10 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -1571,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1588,10 +1592,10 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -1606,7 +1610,7 @@
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1617,16 +1621,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -1641,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1652,13 +1656,13 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -1673,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1684,13 +1688,13 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1705,7 +1709,7 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1716,13 +1720,13 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1737,7 +1741,7 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1751,13 +1755,13 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -1772,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1789,10 +1793,10 @@
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
@@ -1807,7 +1811,7 @@
         <v>4</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1824,10 +1828,10 @@
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -1842,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="K17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1859,10 +1863,10 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
@@ -1877,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1891,13 +1895,13 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
@@ -1912,7 +1916,7 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1929,10 +1933,10 @@
         <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
         <v>6</v>
@@ -1947,7 +1951,7 @@
         <v>9</v>
       </c>
       <c r="K22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1964,10 +1968,10 @@
         <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
@@ -1982,7 +1986,7 @@
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1999,10 +2003,10 @@
         <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
         <v>6</v>
@@ -2017,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="K24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2034,10 +2038,10 @@
         <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
@@ -2052,7 +2056,7 @@
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2066,10 +2070,10 @@
         <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
         <v>62</v>
@@ -2087,7 +2091,7 @@
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2095,19 +2099,19 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
         <v>68</v>
@@ -2125,27 +2129,27 @@
         <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="G30" t="s">
         <v>6</v>
@@ -2160,24 +2164,24 @@
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
         <v>6</v>
@@ -2192,24 +2196,24 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
         <v>96</v>
       </c>
-      <c r="E32" t="s">
-        <v>97</v>
-      </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G32" t="s">
         <v>6</v>
@@ -2224,24 +2228,24 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
         <v>6</v>
@@ -2256,24 +2260,24 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G34" t="s">
         <v>6</v>
@@ -2288,24 +2292,24 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
         <v>6</v>
@@ -2320,24 +2324,24 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
         <v>6</v>
@@ -2352,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2363,13 +2367,13 @@
         <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s">
         <v>7</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2380,13 +2384,13 @@
         <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s">
         <v>7</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2397,13 +2401,13 @@
         <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s">
         <v>7</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2414,13 +2418,13 @@
         <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s">
         <v>7</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2428,16 +2432,16 @@
         <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s">
         <v>7</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2448,13 +2452,13 @@
         <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s">
         <v>7</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2465,13 +2469,13 @@
         <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s">
         <v>7</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2482,13 +2486,13 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s">
         <v>7</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2499,13 +2503,13 @@
         <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s">
         <v>7</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
